--- a/ComprehensiveInventoryMonitoringTechnologies.xlsx
+++ b/ComprehensiveInventoryMonitoringTechnologies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\_Env_Climate\Sci_Chal\NSC-OLW_Monitoring_Tech_90054019\Phase1\BigFatTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00BBE172-9A68-48FB-9451-3A9987574AEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A31FECFD-99F3-4955-BD43-6EAD834530C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6443,10 +6443,10 @@
   <dimension ref="A1:BQ559"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="AA51" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="AE3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AI60" sqref="AI60"/>
+      <selection pane="bottomRight" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
